--- a/PlantillaDesarrolloJuego.xlsx
+++ b/PlantillaDesarrolloJuego.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\postgrado\postgrado UNAL 2023_1\Calidad_de_Software\JuegoGitHub\Game-of-Measurin-Technical-Debt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A95628E7-44E0-4B59-A4EF-CA71185CE2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E89172-4B80-40ED-8606-99439C85C130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E0491556-BBFD-4CB0-9B49-240A29F294E8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>PLANTILLA TECNICA</t>
   </si>
@@ -76,6 +76,96 @@
   </si>
   <si>
     <t>V. CRITERIO DE SELECCIÓN DEL GANADOR</t>
+  </si>
+  <si>
+    <t>Measuring the Technical Debt</t>
+  </si>
+  <si>
+    <t>Gana el desarrollador que tenga al final el menor valor de deuda tecnica.</t>
+  </si>
+  <si>
+    <t>Deuda Tecnica</t>
+  </si>
+  <si>
+    <t>Technical Debt</t>
+  </si>
+  <si>
+    <t>Learn the calculation of technical debt</t>
+  </si>
+  <si>
+    <t>TECHNICAL SQUAD</t>
+  </si>
+  <si>
+    <t>Technical name</t>
+  </si>
+  <si>
+    <t>I. GENERAL</t>
+  </si>
+  <si>
+    <t>Objective of the game</t>
+  </si>
+  <si>
+    <t>Number of Players</t>
+  </si>
+  <si>
+    <t>Theme Name</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>II. EDUCATIONAL COMPONENT</t>
+  </si>
+  <si>
+    <t>Instructional Objectives</t>
+  </si>
+  <si>
+    <t>Basic concepts of the theme</t>
+  </si>
+  <si>
+    <t>III. MATERIALS</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>IV. GAME RULES</t>
+  </si>
+  <si>
+    <t>V. WINNER SELECTION CRITERIA</t>
+  </si>
+  <si>
+    <t>El objetivo dej juego es refactorizar el codigo, cada codigo refactorizado tendra unos valores para el calculo de la deuda tecnica, despues de refactorizar el codigo 25 veces se hace una comparacion de la deuda tecnica con los demas desarrolladores.</t>
+  </si>
+  <si>
+    <t>Aprender a calcular la deuda tecnica</t>
+  </si>
+  <si>
+    <t>Calculando la deuda tecnica</t>
+  </si>
+  <si>
+    <t>Analizar los diferentes parametros para el calculo de la deuda tecnica.                        Analizar el cambio de la deuda tecnica en cada refactorización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roles, Niveles de </t>
+  </si>
+  <si>
+    <t>Tablero de juego</t>
+  </si>
+  <si>
+    <t>El tablero contiene el avance que tienen los desarrolladores en la refactorizacion de los codigos</t>
+  </si>
+  <si>
+    <t>Dado</t>
+  </si>
+  <si>
+    <t>El dado se asocia con el avance en la refatorizacion del codigo</t>
   </si>
 </sst>
 </file>
@@ -191,32 +281,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,211 +636,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFD7028-E5DB-4550-8ED6-B58006C954E1}">
-  <dimension ref="B1:E26"/>
+  <dimension ref="B1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="K1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="K3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="C4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="2:14" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="C5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
+      <c r="C6" s="18">
+        <v>6</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="K6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="18">
+        <v>6</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="K7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+      <c r="C8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="K8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="C9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="K9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="2:14" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="K10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+      <c r="C11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="K11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="K12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="17"/>
+      <c r="K13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="K17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="K18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="23">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="K23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="K24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="46">
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N26"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K1:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B23:E23"/>
@@ -752,12 +1076,6 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PlantillaDesarrolloJuego.xlsx
+++ b/PlantillaDesarrolloJuego.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\postgrado\postgrado UNAL 2023_1\Calidad_de_Software\JuegoGitHub\Game-of-Measurin-Technical-Debt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E89172-4B80-40ED-8606-99439C85C130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE2B991-43AA-421C-9791-02CB71991E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E0491556-BBFD-4CB0-9B49-240A29F294E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>PLANTILLA TECNICA</t>
   </si>
@@ -156,23 +157,74 @@
     <t xml:space="preserve">Roles, Niveles de </t>
   </si>
   <si>
-    <t>Tablero de juego</t>
-  </si>
-  <si>
     <t>El tablero contiene el avance que tienen los desarrolladores en la refactorizacion de los codigos</t>
   </si>
   <si>
-    <t>Dado</t>
-  </si>
-  <si>
     <t>El dado se asocia con el avance en la refatorizacion del codigo</t>
+  </si>
+  <si>
+    <t>Developer 1</t>
+  </si>
+  <si>
+    <t>Developer 2</t>
+  </si>
+  <si>
+    <t>Developer 3</t>
+  </si>
+  <si>
+    <t>Developer 4</t>
+  </si>
+  <si>
+    <t>Developer 5</t>
+  </si>
+  <si>
+    <t>Developer 6</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Fan Out</t>
+  </si>
+  <si>
+    <t>Fan In</t>
+  </si>
+  <si>
+    <t>Number of Components</t>
+  </si>
+  <si>
+    <t>Number of Edges</t>
+  </si>
+  <si>
+    <t>Number of Nodes</t>
+  </si>
+  <si>
+    <t>Shared Data Structure</t>
+  </si>
+  <si>
+    <t>Shared Data Parameter</t>
+  </si>
+  <si>
+    <t>Effort</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Datos Iniciales</t>
+  </si>
+  <si>
+    <t>Refactor Code</t>
+  </si>
+  <si>
+    <t>Instrucciones para refactorizar el codigo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +248,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +288,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -277,11 +355,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -289,13 +436,34 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -303,12 +471,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -316,11 +482,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,203 +810,203 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFD7028-E5DB-4550-8ED6-B58006C954E1}">
   <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
     <col min="10" max="10" width="6.5546875" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="K3" s="16" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="K3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
     </row>
     <row r="5" spans="2:14" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="K5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="26">
         <v>6</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="K6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="26">
         <v>6</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="K7" s="16" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="K7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
       <c r="K8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
       <c r="K9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
     </row>
     <row r="10" spans="2:14" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="K10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
     </row>
     <row r="11" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
       <c r="K11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="15"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="K12" s="5" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="K12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="7"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
@@ -843,193 +1015,197 @@
       <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="25"/>
       <c r="K13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="17"/>
+      <c r="N13" s="25"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="9"/>
+      <c r="D14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="24"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="2:14" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="15"/>
+      <c r="D15" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="32"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="15"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="22"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="15"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="K17" s="5" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="K17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="7"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
       <c r="K18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="23">
+      <c r="B19" s="6">
         <v>1</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>3</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>4</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="15"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="K23" s="5" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="K23" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="7"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="K24" s="9" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="K24" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="K12:N12"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K24:N26"/>
     <mergeCell ref="L11:N11"/>
@@ -1044,24 +1220,20 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="K1:N2"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="B24:E26"/>
@@ -1076,8 +1248,433 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCBE15D-9718-408B-8621-582F11B93172}">
+  <dimension ref="B1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8">
+        <v>5</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="30"/>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="8">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8">
+        <v>5</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8">
+        <v>8</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="8">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8">
+        <v>8</v>
+      </c>
+      <c r="H7" s="8">
+        <v>4</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8">
+        <v>7</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="8">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>8</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8">
+        <v>7</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8">
+        <v>8</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="J17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3</v>
+      </c>
+      <c r="F18" s="8">
+        <v>4</v>
+      </c>
+      <c r="G18" s="8">
+        <v>5</v>
+      </c>
+      <c r="H18" s="8">
+        <v>6</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>